--- a/Stella weekly hours.xlsx
+++ b/Stella weekly hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitetetitromso-my.sharepoint.com/personal/stpis0397_uit_no/Documents/LESS-Project-with-RAs-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="11_F25DC773A252ABDACC104886F99C55E85BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCE2E07A-4252-44D5-93BA-EF407C9D4F42}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="11_F25DC773A252ABDACC104886F99C55E85BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55D39B3C-8F10-4957-B39A-C13033BF2699}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Week</t>
   </si>
@@ -77,6 +77,10 @@
   </si>
   <si>
     <t>sum of hours (every month)</t>
+  </si>
+  <si>
+    <t>preprocessing: artifact rejection and ICA in session 3 and building pipeline session 4, working on exporting data
+one session</t>
   </si>
 </sst>
 </file>
@@ -172,7 +176,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -189,7 +193,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -207,6 +210,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -475,7 +482,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +502,7 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -562,7 +569,7 @@
       <c r="A7" s="1">
         <v>45439</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>24.5</v>
       </c>
       <c r="C7" t="s">
@@ -581,7 +588,7 @@
       <c r="A9" s="1">
         <v>45453</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9">
         <v>18.25</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -596,16 +603,22 @@
       <c r="A10" s="1">
         <v>45460</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10">
         <v>19.75</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45467</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -633,43 +646,40 @@
         <v>45502</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45509</v>
       </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45516</v>
       </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45523</v>
       </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
   </sheetData>

--- a/Stella weekly hours.xlsx
+++ b/Stella weekly hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitetetitromso-my.sharepoint.com/personal/stpis0397_uit_no/Documents/LESS-Project-with-RAs-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="11_F25DC773A252ABDACC104886F99C55E85BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55D39B3C-8F10-4957-B39A-C13033BF2699}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="11_F25DC773A252ABDACC104886F99C55E85BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D807F823-49A3-477C-86D9-E21E0B5479A8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>preprocessing: artifact rejection and ICA in session 3 and building pipeline session 4, working on exporting data
-one session</t>
+one session, correcting the failures in data of Session 4</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +615,7 @@
         <v>45467</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>12</v>

--- a/Stella weekly hours.xlsx
+++ b/Stella weekly hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitetetitromso-my.sharepoint.com/personal/stpis0397_uit_no/Documents/LESS-Project-with-RAs-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="11_F25DC773A252ABDACC104886F99C55E85BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D807F823-49A3-477C-86D9-E21E0B5479A8}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="11_F25DC773A252ABDACC104886F99C55E85BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10687ED5-44D6-4ACE-A963-1D6648C8F013}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Week</t>
   </si>
@@ -81,6 +81,9 @@
   <si>
     <t>preprocessing: artifact rejection and ICA in session 3 and building pipeline session 4, working on exporting data
 one session, correcting the failures in data of Session 4</t>
+  </si>
+  <si>
+    <t>2 sessions, preprocessing session 4</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,6 +628,12 @@
       <c r="A12" s="1">
         <v>45474</v>
       </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">

--- a/Stella weekly hours.xlsx
+++ b/Stella weekly hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitetetitromso-my.sharepoint.com/personal/stpis0397_uit_no/Documents/LESS-Project-with-RAs-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="11_F25DC773A252ABDACC104886F99C55E85BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10687ED5-44D6-4ACE-A963-1D6648C8F013}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="11_F25DC773A252ABDACC104886F99C55E85BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A0BD6C2-ADC0-4EA6-8704-DB2A960B28EA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Week</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>2 sessions, preprocessing session 4</t>
+  </si>
+  <si>
+    <t>preprocessing session 4</t>
   </si>
 </sst>
 </file>
@@ -215,10 +218,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -485,7 +484,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,10 +633,20 @@
       <c r="C12" t="s">
         <v>13</v>
       </c>
+      <c r="D12">
+        <f xml:space="preserve"> SUM(B10:B13)</f>
+        <v>56.25</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45481</v>
+      </c>
+      <c r="B13">
+        <v>4.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">

--- a/Stella weekly hours.xlsx
+++ b/Stella weekly hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitetetitromso-my.sharepoint.com/personal/stpis0397_uit_no/Documents/LESS-Project-with-RAs-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="11_F25DC773A252ABDACC104886F99C55E85BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A0BD6C2-ADC0-4EA6-8704-DB2A960B28EA}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="11_F25DC773A252ABDACC104886F99C55E85BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87BDBB90-7D7F-4F0F-A84B-94C0C5AF2140}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Week</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>preprocessing session 4</t>
+  </si>
+  <si>
+    <t>6, 45</t>
   </si>
 </sst>
 </file>
@@ -218,6 +221,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -484,7 +491,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,6 +660,12 @@
       <c r="A14" s="1">
         <v>45488</v>
       </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">

--- a/Stella weekly hours.xlsx
+++ b/Stella weekly hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitetetitromso-my.sharepoint.com/personal/stpis0397_uit_no/Documents/LESS-Project-with-RAs-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="11_F25DC773A252ABDACC104886F99C55E85BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87BDBB90-7D7F-4F0F-A84B-94C0C5AF2140}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="11_F25DC773A252ABDACC104886F99C55E85BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC287E0B-A3B4-4B62-AACB-742471FB9B47}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Week</t>
   </si>
@@ -89,7 +89,10 @@
     <t>preprocessing session 4</t>
   </si>
   <si>
-    <t>6, 45</t>
+    <t>preprocessing session 4 and trial by trial pipeline session 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6, 45 + 5, 15 </t>
   </si>
 </sst>
 </file>
@@ -661,10 +664,10 @@
         <v>45488</v>
       </c>
       <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
         <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">

--- a/Stella weekly hours.xlsx
+++ b/Stella weekly hours.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitetetitromso-my.sharepoint.com/personal/stpis0397_uit_no/Documents/LESS-Project-with-RAs-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="11_F25DC773A252ABDACC104886F99C55E85BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC287E0B-A3B4-4B62-AACB-742471FB9B47}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="11_F25DC773A252ABDACC104886F99C55E85BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8759D62D-3439-4D5F-A3D7-B52B142D1404}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,10 +89,10 @@
     <t>preprocessing session 4</t>
   </si>
   <si>
-    <t>preprocessing session 4 and trial by trial pipeline session 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6, 45 + 5, 15 </t>
+    <t xml:space="preserve">18, 45 </t>
+  </si>
+  <si>
+    <t>preprocessing session 4 and trial by trial pipeline session 2, 3, 4</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,10 +664,10 @@
         <v>45488</v>
       </c>
       <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">

--- a/Stella weekly hours.xlsx
+++ b/Stella weekly hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitetetitromso-my.sharepoint.com/personal/stpis0397_uit_no/Documents/LESS-Project-with-RAs-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="11_F25DC773A252ABDACC104886F99C55E85BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8759D62D-3439-4D5F-A3D7-B52B142D1404}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="11_F25DC773A252ABDACC104886F99C55E85BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C60A7B34-5964-468A-BF2A-B79A754463D3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Week</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>preprocessing session 4 and trial by trial pipeline session 2, 3, 4</t>
+  </si>
+  <si>
+    <t>preprocessing redo</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,6 +677,12 @@
       <c r="A15" s="1">
         <v>45495</v>
       </c>
+      <c r="B15">
+        <v>7.25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">

--- a/Stella weekly hours.xlsx
+++ b/Stella weekly hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitetetitromso-my.sharepoint.com/personal/stpis0397_uit_no/Documents/LESS-Project-with-RAs-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="11_F25DC773A252ABDACC104886F99C55E85BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C60A7B34-5964-468A-BF2A-B79A754463D3}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="11_F25DC773A252ABDACC104886F99C55E85BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFF20BED-984B-478B-97B0-B3524D184DEE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,10 +227,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -496,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +674,7 @@
         <v>45495</v>
       </c>
       <c r="B15">
-        <v>7.25</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
